--- a/rundown_matakuliah_IN232_MatDis.xlsx
+++ b/rundown_matakuliah_IN232_MatDis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t xml:space="preserve">Kode Mata Kuliah </t>
   </si>
@@ -104,31 +104,139 @@
     <t xml:space="preserve">Slides Himpunan</t>
   </si>
   <si>
+    <t xml:space="preserve">Diskusi dgn bahas soal bersama2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diskusi tentang Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 Definisi Himpunan &amp; Kesamaan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Himpunan Bagian</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 Diagram Venn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 Operasi-operasi Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 Kardinalitas Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 Hukum-Hukum Aljabar Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Relasi &amp; Fungsi Bagian 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Soal Pembuktian Himpunan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hasil Kali Kartesius</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Diskusi</t>
   </si>
   <si>
-    <t xml:space="preserve">Diskusi tentang Himpunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Teori Y dan Implementasinya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1. ABCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFGH.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJKL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJKL.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dst..</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Relasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fungsi</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 Fungsi Identitas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fungsi Satu-ke-satu (One-to-One) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -138,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,12 +278,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,6 +369,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
@@ -259,22 +385,15 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -303,7 +422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,64 +495,76 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -513,17 +644,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:G1048576"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.45"/>
@@ -649,21 +780,21 @@
       <c r="D13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="22" t="s">
         <v>27</v>
       </c>
@@ -671,62 +802,396 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="23" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="17"/>
+      <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="D17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="17"/>
+      <c r="C19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27" t="s">
+      <c r="D19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="17"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="17"/>
+      <c r="C21" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="D21" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="17"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="17"/>
+      <c r="C23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="D23" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="17"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="17"/>
+      <c r="C25" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31" t="s">
+      <c r="D25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="28"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="31"/>
+      <c r="C33" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="31"/>
+      <c r="C37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="34"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="33"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="31"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="33"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="35"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B9:B10"/>

--- a/rundown_matakuliah_IN232_MatDis.xlsx
+++ b/rundown_matakuliah_IN232_MatDis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t xml:space="preserve">Kode Mata Kuliah </t>
   </si>
@@ -95,22 +95,68 @@
     <t xml:space="preserve">Pertemuan Online</t>
   </si>
   <si>
-    <t xml:space="preserve">Dengan Gmeet</t>
+    <t xml:space="preserve">Soal-soal semester-semester sebelumnya</t>
   </si>
   <si>
     <t xml:space="preserve">1.2. Notasi Logika</t>
   </si>
   <si>
-    <t xml:space="preserve">Slides Himpunan</t>
+    <t xml:space="preserve">Slides Himpunan/Video Pembelajaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diskusi dan bahas soal bersama2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diskusi tentang Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 Definisi Himpunan &amp; Kesamaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siswa mencoba &amp; dikonfirmasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 Himpunan Bagian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahas soal bersama-sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 Diagram Venn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minta siswa mengerjakan &amp; periksa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 Operasi-operasi Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengerjakan soal bersama-sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 Kardinalitas Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siswa mencoba interactive 
+Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 Hukum-Hukum Aljabar Himpunan</t>
   </si>
   <si>
     <t xml:space="preserve">Diskusi dgn bahas soal bersama2</t>
   </si>
   <si>
-    <t xml:space="preserve">Diskusi tentang Himpunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 Definisi Himpunan &amp; Kesamaan</t>
+    <t xml:space="preserve">2. Relasi &amp; Fungsi Bagian 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1. Pengantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Soal Pembuktian Himpunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-slides-relasi-dan-fungsi.pdf</t>
   </si>
   <si>
     <r>
@@ -121,35 +167,48 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.4 </t>
-    </r>
+      <t xml:space="preserve">2.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hasil Kali Kartesius</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides Relasi &amp; Fungsi/Video 
+Pembelajaran</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Himpunan Bagian</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 Diagram Venn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6 Operasi-operasi Himpunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 Kardinalitas Himpunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8 Hukum-Hukum Aljabar Himpunan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Relasi &amp; Fungsi Bagian 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Soal Pembuktian Himpunan</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Relasi</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 Fungsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 Fungsi Identitas</t>
   </si>
   <si>
     <r>
@@ -160,19 +219,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.2. </t>
+      <t xml:space="preserve">2.6 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hasil Kali Kartesius</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Diskusi</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fungsi Satu-ke-satu (One-to-One) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Relasi &amp; Fungsi Bagian 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Pengantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2. Fungsi Onto</t>
   </si>
   <si>
     <r>
@@ -183,16 +249,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.3 </t>
+      <t xml:space="preserve">3.3 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Relasi</t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fungsi Korespondensi satu-satu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 Fungsi Invers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 Komposisi dari Fungsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Induksi Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1. Pengantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides Induksi Matematika/Video
+Pembelajaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-slides-induksi-matematika.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2. Barisan</t>
   </si>
   <si>
     <r>
@@ -203,20 +292,79 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.4 </t>
-    </r>
+      <t xml:space="preserve">4.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Notasi Penjumlahan</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 Notasi Perkalian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 Motivasi Induksi Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6 Teknik Induksi Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 Langkah-langkah Induksi Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 Contoh-contoh Induksi Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Relasi Rekursif bagian I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1. Pengantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides Relasi Rekursif/Video
+Pembelajaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-slides-relasi-rekursif.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2. Mendefinisikan Barisan secara Rekursif</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Fungsi</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 Fungsi Identitas</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Contoh-Contoh Relasi Rekursif</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4 Menyelesaikan Relasi Rekursif dengan
+Teknik Iterasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Relasi Rekursif bagian II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1. Pengantar</t>
   </si>
   <si>
     <r>
@@ -227,15 +375,164 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.6 </t>
+      <t xml:space="preserve">6.2. </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Second-Order Linear Homogeneous recurrence relations with constant coefficients</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 Teknik Mencari Solusi: 2 Akar Berbeda</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fungsi Satu-ke-satu (One-to-One) </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Teknik Mencari Solusi: 2 Akar Sama</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Counting bagian I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides Counting/Video Pembelajaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-slides-counting.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pohon kemungkinan</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 Aturan Perkalian</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Permutasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aturan Tambah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aturan Kurang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Prinsip Inklusi/Eksklusi</t>
     </r>
   </si>
 </sst>
@@ -278,12 +575,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -295,6 +586,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -311,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -369,13 +668,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
@@ -383,15 +675,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="hair"/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -422,7 +707,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,76 +780,52 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -644,10 +905,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17:C18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,7 +1019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14" t="n">
@@ -777,28 +1038,28 @@
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -807,201 +1068,201 @@
       <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="17"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="17"/>
-      <c r="C17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="17"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="17"/>
-      <c r="C19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="17"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="22" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="17"/>
-      <c r="C21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="17"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17"/>
-      <c r="C23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="17"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="17"/>
-      <c r="C25" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="22" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="27" t="s">
-        <v>35</v>
+    <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="28"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="22"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="n">
         <v>2</v>
@@ -1014,184 +1275,1019 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29"/>
-      <c r="C29" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22" t="s">
+    <row r="29" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="23"/>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="24"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="24"/>
+      <c r="C31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="24"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="24"/>
+      <c r="C33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="24"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="24"/>
+      <c r="C35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="24"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="26"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="22"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="23"/>
+      <c r="C41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="24"/>
+      <c r="C43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="24"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="24"/>
+      <c r="C45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="24"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="24"/>
+      <c r="C47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="22"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="23"/>
+      <c r="C51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="24"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="24"/>
+      <c r="C53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="24"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="24"/>
+      <c r="C55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="24"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="24"/>
+      <c r="C57" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="24"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="24"/>
+      <c r="C59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="24"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="24"/>
+      <c r="C61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="24"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22" t="s">
+      <c r="G62" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="24"/>
+      <c r="C63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="24"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="22"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="23"/>
+      <c r="C67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="24"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="24"/>
+      <c r="C69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="24"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="24"/>
+      <c r="C71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="26"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="22"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="23"/>
+      <c r="C75" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="24"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="24"/>
+      <c r="C77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="24"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="24"/>
+      <c r="C79" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="26"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="22"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="23"/>
+      <c r="C83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="24"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="24"/>
+      <c r="C85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="24"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32" t="s">
+      <c r="G86" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="24"/>
+      <c r="C87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="24"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="31"/>
-      <c r="C37" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="34"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="33"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="31"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="33"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="35"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
+      <c r="G88" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="24"/>
+      <c r="C89" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="24"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="24"/>
+      <c r="C91" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="24"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="24"/>
+      <c r="C93" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="26"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B9:B10"/>
